--- a/pdb/endornase/SARS-CoV-2/endornase_best_RMSD.xlsx
+++ b/pdb/endornase/SARS-CoV-2/endornase_best_RMSD.xlsx
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,16 +488,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.165</v>
+        <v>0.117</v>
       </c>
       <c r="F2" t="n">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -507,25 +507,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.165</v>
+        <v>0.117</v>
       </c>
       <c r="F3" t="n">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -535,35 +535,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.215</v>
+        <v>0.122</v>
       </c>
       <c r="F4" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,26 +572,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.215</v>
+        <v>0.122</v>
       </c>
       <c r="F5" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.223</v>
+        <v>0.152</v>
       </c>
       <c r="F6" t="n">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -619,35 +619,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.223</v>
+        <v>0.152</v>
       </c>
       <c r="F7" t="n">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.234</v>
+        <v>0.153</v>
       </c>
       <c r="F8" t="n">
         <v>346</v>
@@ -665,7 +665,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -675,16 +675,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.234</v>
+        <v>0.153</v>
       </c>
       <c r="F9" t="n">
         <v>346</v>
@@ -693,7 +693,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -703,35 +703,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.237</v>
+        <v>0.157</v>
       </c>
       <c r="F10" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.237</v>
+        <v>0.157</v>
       </c>
       <c r="F11" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -759,35 +759,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.245</v>
+        <v>0.16</v>
       </c>
       <c r="F12" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -796,54 +796,54 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.245</v>
+        <v>0.16</v>
       </c>
       <c r="F13" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>5s71</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>5s70</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6w01</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.254</v>
+        <v>0.161</v>
       </c>
       <c r="F14" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.254</v>
+        <v>0.161</v>
       </c>
       <c r="F15" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.254</v>
+        <v>0.167</v>
       </c>
       <c r="F16" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -899,35 +899,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.254</v>
+        <v>0.167</v>
       </c>
       <c r="F17" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -936,16 +936,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.255</v>
+        <v>0.169</v>
       </c>
       <c r="F18" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -955,35 +955,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.255</v>
+        <v>0.169</v>
       </c>
       <c r="F19" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.257</v>
+        <v>0.169</v>
       </c>
       <c r="F20" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1011,35 +1011,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.257</v>
+        <v>0.169</v>
       </c>
       <c r="F21" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.26</v>
+        <v>0.176</v>
       </c>
       <c r="F22" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1067,25 +1067,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.26</v>
+        <v>0.176</v>
       </c>
       <c r="F23" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1100,14 +1100,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.269</v>
+        <v>0.185</v>
       </c>
       <c r="F24" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1132,26 +1132,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.269</v>
+        <v>0.185</v>
       </c>
       <c r="F25" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1160,16 +1160,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.274</v>
+        <v>0.197</v>
       </c>
       <c r="F26" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1179,35 +1179,35 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.274</v>
+        <v>0.197</v>
       </c>
       <c r="F27" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1216,16 +1216,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.276</v>
+        <v>0.202</v>
       </c>
       <c r="F28" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1235,25 +1235,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.276</v>
+        <v>0.202</v>
       </c>
       <c r="F29" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1263,35 +1263,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.278</v>
+        <v>0.208</v>
       </c>
       <c r="F30" t="n">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1300,54 +1300,54 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.278</v>
+        <v>0.208</v>
       </c>
       <c r="F31" t="n">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.279</v>
+        <v>0.215</v>
       </c>
       <c r="F32" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.279</v>
+        <v>0.215</v>
       </c>
       <c r="F33" t="n">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1375,47 +1375,47 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.281</v>
+        <v>0.215</v>
       </c>
       <c r="F34" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.281</v>
+        <v>0.215</v>
       </c>
       <c r="F35" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
@@ -1431,30 +1431,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.286</v>
+        <v>0.216</v>
       </c>
       <c r="F36" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1468,82 +1468,82 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.286</v>
+        <v>0.216</v>
       </c>
       <c r="F37" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.29</v>
+        <v>0.223</v>
       </c>
       <c r="F38" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.29</v>
+        <v>0.223</v>
       </c>
       <c r="F39" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.304</v>
+        <v>0.225</v>
       </c>
       <c r="F40" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1571,19 +1571,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.304</v>
+        <v>0.225</v>
       </c>
       <c r="F41" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42">
@@ -1599,30 +1599,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.307</v>
+        <v>0.23</v>
       </c>
       <c r="F42" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1636,21 +1636,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.307</v>
+        <v>0.23</v>
       </c>
       <c r="F43" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.318</v>
+        <v>0.232</v>
       </c>
       <c r="F44" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
@@ -1683,53 +1683,53 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.318</v>
+        <v>0.232</v>
       </c>
       <c r="F45" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>5s72</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>5s6z</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>5s71</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.319</v>
+        <v>0.236</v>
       </c>
       <c r="F46" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1739,25 +1739,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.319</v>
+        <v>0.236</v>
       </c>
       <c r="F47" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1767,35 +1767,35 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.32</v>
+        <v>0.237</v>
       </c>
       <c r="F48" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.32</v>
+        <v>0.237</v>
       </c>
       <c r="F49" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1832,16 +1832,16 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.325</v>
+        <v>0.237</v>
       </c>
       <c r="F50" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.325</v>
+        <v>0.237</v>
       </c>
       <c r="F51" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52">
@@ -1879,30 +1879,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.326</v>
+        <v>0.238</v>
       </c>
       <c r="F52" t="n">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1916,26 +1916,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.326</v>
+        <v>0.238</v>
       </c>
       <c r="F53" t="n">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1944,35 +1944,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.327</v>
+        <v>0.244</v>
       </c>
       <c r="F54" t="n">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>6wlc</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>6x1b</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>6x4i</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.327</v>
+        <v>0.244</v>
       </c>
       <c r="F55" t="n">
         <v>334</v>
@@ -1981,7 +1981,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2000,54 +2000,54 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.327</v>
+        <v>0.245</v>
       </c>
       <c r="F56" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.327</v>
+        <v>0.245</v>
       </c>
       <c r="F57" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.328</v>
+        <v>0.251</v>
       </c>
       <c r="F58" t="n">
         <v>346</v>
@@ -2065,7 +2065,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2075,16 +2075,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.328</v>
+        <v>0.251</v>
       </c>
       <c r="F59" t="n">
         <v>346</v>
@@ -2093,7 +2093,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2112,16 +2112,16 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.328</v>
+        <v>0.254</v>
       </c>
       <c r="F60" t="n">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2140,184 +2140,184 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.328</v>
+        <v>0.254</v>
       </c>
       <c r="F61" t="n">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.329</v>
+        <v>0.254</v>
       </c>
       <c r="F62" t="n">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.329</v>
+        <v>0.254</v>
       </c>
       <c r="F63" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.33</v>
+        <v>0.254</v>
       </c>
       <c r="F64" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.33</v>
+        <v>0.254</v>
       </c>
       <c r="F65" t="n">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.333</v>
+        <v>0.255</v>
       </c>
       <c r="F66" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.333</v>
+        <v>0.255</v>
       </c>
       <c r="F67" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.335</v>
+        <v>0.257</v>
       </c>
       <c r="F68" t="n">
         <v>340</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.335</v>
+        <v>0.257</v>
       </c>
       <c r="F69" t="n">
         <v>340</v>
@@ -2373,17 +2373,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2392,72 +2392,72 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.338</v>
+        <v>0.257</v>
       </c>
       <c r="F70" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>6wlc</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>6vww</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>6x1b</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.338</v>
+        <v>0.257</v>
       </c>
       <c r="F71" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>6xdh</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>5s71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>5s70</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.339</v>
+        <v>0.259</v>
       </c>
       <c r="F72" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2467,63 +2467,63 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.339</v>
+        <v>0.259</v>
       </c>
       <c r="F73" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>7k1l</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>6wlc</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>6x4i</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.341</v>
+        <v>0.259</v>
       </c>
       <c r="F74" t="n">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2532,82 +2532,82 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.341</v>
+        <v>0.259</v>
       </c>
       <c r="F75" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>6x4i</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>7k1l</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>6x4i</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.341</v>
+        <v>0.266</v>
       </c>
       <c r="F76" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>7k1l</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>6x4i</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>6wlc</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.341</v>
+        <v>0.266</v>
       </c>
       <c r="F77" t="n">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.344</v>
+        <v>0.268</v>
       </c>
       <c r="F78" t="n">
         <v>346</v>
@@ -2625,7 +2625,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2635,16 +2635,16 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.344</v>
+        <v>0.268</v>
       </c>
       <c r="F79" t="n">
         <v>346</v>
@@ -2653,7 +2653,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2672,16 +2672,16 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.347</v>
+        <v>0.269</v>
       </c>
       <c r="F80" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2700,16 +2700,16 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.347</v>
+        <v>0.269</v>
       </c>
       <c r="F81" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.348</v>
+        <v>0.274</v>
       </c>
       <c r="F82" t="n">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2756,16 +2756,16 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.348</v>
+        <v>0.274</v>
       </c>
       <c r="F83" t="n">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2775,35 +2775,35 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.351</v>
+        <v>0.277</v>
       </c>
       <c r="F84" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.351</v>
+        <v>0.277</v>
       </c>
       <c r="F85" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2840,16 +2840,16 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.351</v>
+        <v>0.278</v>
       </c>
       <c r="F86" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2868,26 +2868,26 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.351</v>
+        <v>0.278</v>
       </c>
       <c r="F87" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2896,16 +2896,16 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.353</v>
+        <v>0.279</v>
       </c>
       <c r="F88" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2915,30 +2915,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.353</v>
+        <v>0.279</v>
       </c>
       <c r="F89" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.356</v>
+        <v>0.282</v>
       </c>
       <c r="F90" t="n">
         <v>337</v>
@@ -2971,16 +2971,16 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.356</v>
+        <v>0.282</v>
       </c>
       <c r="F91" t="n">
         <v>337</v>
@@ -2989,17 +2989,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.36</v>
+        <v>0.291</v>
       </c>
       <c r="F92" t="n">
         <v>335</v>
@@ -3017,26 +3017,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>7keg</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>6x4i</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>7k1o</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.36</v>
+        <v>0.291</v>
       </c>
       <c r="F93" t="n">
         <v>335</v>
@@ -3045,7 +3045,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3064,16 +3064,16 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.361</v>
+        <v>0.292</v>
       </c>
       <c r="F94" t="n">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3083,25 +3083,25 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.361</v>
+        <v>0.292</v>
       </c>
       <c r="F95" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3111,53 +3111,53 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.361</v>
+        <v>0.292</v>
       </c>
       <c r="F96" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.361</v>
+        <v>0.292</v>
       </c>
       <c r="F97" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3176,16 +3176,16 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.362</v>
+        <v>0.295</v>
       </c>
       <c r="F98" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3204,26 +3204,26 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.362</v>
+        <v>0.295</v>
       </c>
       <c r="F99" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="F100" t="n">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3251,25 +3251,25 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="F101" t="n">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3279,35 +3279,35 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.369</v>
+        <v>0.301</v>
       </c>
       <c r="F102" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3316,16 +3316,16 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.369</v>
+        <v>0.301</v>
       </c>
       <c r="F103" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3335,16 +3335,16 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.372</v>
+        <v>0.303</v>
       </c>
       <c r="F104" t="n">
         <v>342</v>
@@ -3353,17 +3353,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.372</v>
+        <v>0.303</v>
       </c>
       <c r="F105" t="n">
         <v>342</v>
@@ -3381,73 +3381,73 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.373</v>
+        <v>0.304</v>
       </c>
       <c r="F106" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.373</v>
+        <v>0.304</v>
       </c>
       <c r="F107" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3456,16 +3456,16 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.377</v>
+        <v>0.31</v>
       </c>
       <c r="F108" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3475,109 +3475,109 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.377</v>
+        <v>0.31</v>
       </c>
       <c r="F109" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.378</v>
+        <v>0.33</v>
       </c>
       <c r="F110" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.378</v>
+        <v>0.33</v>
       </c>
       <c r="F111" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>6x1b</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>7keg</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>7k1l</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="F112" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3587,25 +3587,25 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="F113" t="n">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3615,35 +3615,35 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="F114" t="n">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3652,16 +3652,16 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.385</v>
+        <v>0.333</v>
       </c>
       <c r="F115" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3680,16 +3680,16 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.387</v>
+        <v>0.335</v>
       </c>
       <c r="F116" t="n">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3708,16 +3708,16 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.387</v>
+        <v>0.335</v>
       </c>
       <c r="F117" t="n">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.388</v>
+        <v>0.338</v>
       </c>
       <c r="F118" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3764,16 +3764,16 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.388</v>
+        <v>0.338</v>
       </c>
       <c r="F119" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3783,35 +3783,35 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="F120" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3820,16 +3820,16 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="F121" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.391</v>
+        <v>0.344</v>
       </c>
       <c r="F122" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3876,21 +3876,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.391</v>
+        <v>0.344</v>
       </c>
       <c r="F123" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3900,14 +3900,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.395</v>
+        <v>0.351</v>
       </c>
       <c r="F124" t="n">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125">
@@ -3918,96 +3918,96 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.395</v>
+        <v>0.351</v>
       </c>
       <c r="F125" t="n">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.398</v>
+        <v>0.356</v>
       </c>
       <c r="F126" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.398</v>
+        <v>0.356</v>
       </c>
       <c r="F127" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4016,16 +4016,16 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.398</v>
+        <v>0.359</v>
       </c>
       <c r="F128" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4035,25 +4035,25 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.398</v>
+        <v>0.359</v>
       </c>
       <c r="F129" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4072,54 +4072,54 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.399</v>
+        <v>0.369</v>
       </c>
       <c r="F130" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>6x1b</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>6xdh</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>5s6z</t>
-        </is>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.399</v>
+        <v>0.369</v>
       </c>
       <c r="F131" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4128,16 +4128,16 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.399</v>
+        <v>0.37</v>
       </c>
       <c r="F132" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4147,25 +4147,25 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.399</v>
+        <v>0.37</v>
       </c>
       <c r="F133" t="n">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4180,14 +4180,14 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.402</v>
+        <v>0.375</v>
       </c>
       <c r="F134" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="135">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4212,21 +4212,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.402</v>
+        <v>0.375</v>
       </c>
       <c r="F135" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4236,14 +4236,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.405</v>
+        <v>0.385</v>
       </c>
       <c r="F136" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137">
@@ -4254,30 +4254,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.405</v>
+        <v>0.385</v>
       </c>
       <c r="F137" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4296,16 +4296,16 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.406</v>
+        <v>0.387</v>
       </c>
       <c r="F138" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.406</v>
+        <v>0.387</v>
       </c>
       <c r="F139" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.407</v>
+        <v>0.388</v>
       </c>
       <c r="F140" t="n">
         <v>346</v>
@@ -4361,7 +4361,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4380,7 +4380,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.407</v>
+        <v>0.388</v>
       </c>
       <c r="F141" t="n">
         <v>346</v>
@@ -4389,7 +4389,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4408,16 +4408,16 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.407</v>
+        <v>0.39</v>
       </c>
       <c r="F142" t="n">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4436,66 +4436,66 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.407</v>
+        <v>0.39</v>
       </c>
       <c r="F143" t="n">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.408</v>
+        <v>0.391</v>
       </c>
       <c r="F144" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.408</v>
+        <v>0.391</v>
       </c>
       <c r="F145" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146">
@@ -4511,30 +4511,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.408</v>
+        <v>0.393</v>
       </c>
       <c r="F146" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4548,26 +4548,26 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.408</v>
+        <v>0.393</v>
       </c>
       <c r="F147" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.408</v>
+        <v>0.394</v>
       </c>
       <c r="F148" t="n">
         <v>346</v>
@@ -4585,7 +4585,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4595,16 +4595,16 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.408</v>
+        <v>0.394</v>
       </c>
       <c r="F149" t="n">
         <v>346</v>
@@ -4613,17 +4613,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.41</v>
+        <v>0.399</v>
       </c>
       <c r="F150" t="n">
         <v>342</v>
@@ -4641,7 +4641,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4651,16 +4651,16 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.41</v>
+        <v>0.399</v>
       </c>
       <c r="F151" t="n">
         <v>342</v>
@@ -4669,17 +4669,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4688,26 +4688,26 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.41</v>
+        <v>0.406</v>
       </c>
       <c r="F152" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4716,72 +4716,72 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.41</v>
+        <v>0.406</v>
       </c>
       <c r="F153" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="F154" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.41</v>
+        <v>0.407</v>
       </c>
       <c r="F155" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4800,21 +4800,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.412</v>
+        <v>0.407</v>
       </c>
       <c r="F156" t="n">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4824,20 +4824,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.412</v>
+        <v>0.407</v>
       </c>
       <c r="F157" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.413</v>
+        <v>0.41</v>
       </c>
       <c r="F158" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4884,21 +4884,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.413</v>
+        <v>0.41</v>
       </c>
       <c r="F159" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4908,14 +4908,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
       <c r="F160" t="n">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161">
@@ -4926,30 +4926,30 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
       <c r="F161" t="n">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4968,16 +4968,16 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="F162" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4996,26 +4996,26 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="F163" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5024,16 +5024,16 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.416</v>
+        <v>0.42</v>
       </c>
       <c r="F164" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5043,137 +5043,137 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.416</v>
+        <v>0.42</v>
       </c>
       <c r="F165" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="F166" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="F167" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="F168" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="F169" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5183,35 +5183,35 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.421</v>
+        <v>0.423</v>
       </c>
       <c r="F170" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5220,16 +5220,16 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.421</v>
+        <v>0.423</v>
       </c>
       <c r="F171" t="n">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5239,35 +5239,35 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.422</v>
+        <v>0.424</v>
       </c>
       <c r="F172" t="n">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5276,16 +5276,16 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.422</v>
+        <v>0.424</v>
       </c>
       <c r="F173" t="n">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5295,35 +5295,35 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="F174" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5332,10 +5332,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="F175" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5360,16 +5360,16 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="F176" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5388,26 +5388,26 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="F177" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
       <c r="F178" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5435,30 +5435,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.426</v>
+        <v>0.43</v>
       </c>
       <c r="F179" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5468,20 +5468,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="F180" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="F181" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182">
@@ -5519,25 +5519,25 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.427</v>
+        <v>0.433</v>
       </c>
       <c r="F182" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5547,81 +5547,81 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.427</v>
+        <v>0.433</v>
       </c>
       <c r="F183" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.428</v>
+        <v>0.44</v>
       </c>
       <c r="F184" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.428</v>
+        <v>0.44</v>
       </c>
       <c r="F185" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5640,16 +5640,16 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.435</v>
+        <v>0.443</v>
       </c>
       <c r="F186" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5668,72 +5668,72 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.435</v>
+        <v>0.443</v>
       </c>
       <c r="F187" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.437</v>
+        <v>0.445</v>
       </c>
       <c r="F188" t="n">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.437</v>
+        <v>0.445</v>
       </c>
       <c r="F189" t="n">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5743,25 +5743,25 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.443</v>
+        <v>0.448</v>
       </c>
       <c r="F190" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5780,26 +5780,26 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.443</v>
+        <v>0.448</v>
       </c>
       <c r="F191" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5808,16 +5808,16 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="F192" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5836,16 +5836,16 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.445</v>
+        <v>0.448</v>
       </c>
       <c r="F193" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5864,16 +5864,16 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.45</v>
+        <v>0.455</v>
       </c>
       <c r="F194" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5892,44 +5892,44 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.45</v>
+        <v>0.455</v>
       </c>
       <c r="F195" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
+          <t>7k1l</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
           <t>6xdh</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>7k1o</t>
-        </is>
-      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="F196" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="F197" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5967,35 +5967,35 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="F198" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6004,16 +6004,16 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="F199" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6023,12 +6023,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -6041,17 +6041,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6069,7 +6069,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6079,35 +6079,35 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.459</v>
+        <v>0.467</v>
       </c>
       <c r="F202" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6116,16 +6116,16 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.459</v>
+        <v>0.467</v>
       </c>
       <c r="F203" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6135,35 +6135,35 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="F204" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6172,16 +6172,16 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="F205" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6200,54 +6200,54 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.465</v>
+        <v>0.468</v>
       </c>
       <c r="F206" t="n">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>7k1l</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
           <t>5s70</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>6wlc</t>
-        </is>
-      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.465</v>
+        <v>0.468</v>
       </c>
       <c r="F207" t="n">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6256,44 +6256,44 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.466</v>
+        <v>0.471</v>
       </c>
       <c r="F208" t="n">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>7keh</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
           <t>5s72</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>6wlc</t>
-        </is>
-      </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.466</v>
+        <v>0.471</v>
       </c>
       <c r="F209" t="n">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6312,16 +6312,16 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.476</v>
+        <v>0.472</v>
       </c>
       <c r="F210" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.476</v>
+        <v>0.472</v>
       </c>
       <c r="F211" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212">
@@ -6364,14 +6364,14 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.488</v>
+        <v>0.475</v>
       </c>
       <c r="F212" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="213">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6396,16 +6396,16 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.488</v>
+        <v>0.475</v>
       </c>
       <c r="F213" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.489</v>
+        <v>0.476</v>
       </c>
       <c r="F214" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6452,35 +6452,35 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.489</v>
+        <v>0.476</v>
       </c>
       <c r="F215" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
+          <t>7k1o</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
           <t>5s71</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>7k1o</t>
-        </is>
-      </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.491</v>
+        <v>0.478</v>
       </c>
       <c r="F216" t="n">
         <v>344</v>
@@ -6489,26 +6489,26 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
+          <t>5s71</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
           <t>7k1o</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>5s71</t>
-        </is>
-      </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.491</v>
+        <v>0.478</v>
       </c>
       <c r="F217" t="n">
         <v>344</v>
@@ -6517,7 +6517,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6527,35 +6527,35 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.492</v>
+        <v>0.481</v>
       </c>
       <c r="F218" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6564,38 +6564,38 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.492</v>
+        <v>0.481</v>
       </c>
       <c r="F219" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.492</v>
+        <v>0.482</v>
       </c>
       <c r="F220" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221">
@@ -6606,24 +6606,24 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.492</v>
+        <v>0.482</v>
       </c>
       <c r="F221" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="222">
@@ -6644,11 +6644,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.493</v>
+        <v>0.487</v>
       </c>
       <c r="F222" t="n">
         <v>345</v>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.493</v>
+        <v>0.487</v>
       </c>
       <c r="F223" t="n">
         <v>345</v>
@@ -6685,26 +6685,26 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
+          <t>5s6x</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
           <t>7k1o</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>5s6x</t>
-        </is>
-      </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.496</v>
+        <v>0.489</v>
       </c>
       <c r="F224" t="n">
         <v>344</v>
@@ -6713,26 +6713,26 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
+          <t>7k1o</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
           <t>5s6x</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>7k1o</t>
-        </is>
-      </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.496</v>
+        <v>0.489</v>
       </c>
       <c r="F225" t="n">
         <v>344</v>
@@ -6741,7 +6741,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6760,16 +6760,16 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.498</v>
+        <v>0.489</v>
       </c>
       <c r="F226" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6788,16 +6788,16 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.498</v>
+        <v>0.489</v>
       </c>
       <c r="F227" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6816,16 +6816,16 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.501</v>
+        <v>0.492</v>
       </c>
       <c r="F228" t="n">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6844,35 +6844,35 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.501</v>
+        <v>0.492</v>
       </c>
       <c r="F229" t="n">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.502</v>
+        <v>0.494</v>
       </c>
       <c r="F230" t="n">
         <v>345</v>
@@ -6881,26 +6881,26 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.502</v>
+        <v>0.494</v>
       </c>
       <c r="F231" t="n">
         <v>345</v>
@@ -6909,17 +6909,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6928,16 +6928,16 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.506</v>
+        <v>0.499</v>
       </c>
       <c r="F232" t="n">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6947,35 +6947,35 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.506</v>
+        <v>0.499</v>
       </c>
       <c r="F233" t="n">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.509</v>
+        <v>0.502</v>
       </c>
       <c r="F234" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7003,19 +7003,19 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.509</v>
+        <v>0.502</v>
       </c>
       <c r="F235" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236">
@@ -7031,30 +7031,30 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.51</v>
+        <v>0.504</v>
       </c>
       <c r="F236" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7068,26 +7068,26 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.51</v>
+        <v>0.504</v>
       </c>
       <c r="F237" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7099,13 +7099,13 @@
         <v>0.512</v>
       </c>
       <c r="F238" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7k1o</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -7115,137 +7115,137 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E239" t="n">
         <v>0.512</v>
       </c>
       <c r="F239" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.513</v>
+        <v>0.516</v>
       </c>
       <c r="F240" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.513</v>
+        <v>0.516</v>
       </c>
       <c r="F241" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.518</v>
+        <v>0.519</v>
       </c>
       <c r="F242" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.518</v>
+        <v>0.519</v>
       </c>
       <c r="F243" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.519</v>
+        <v>0.522</v>
       </c>
       <c r="F244" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7292,21 +7292,21 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.519</v>
+        <v>0.522</v>
       </c>
       <c r="F245" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7316,11 +7316,11 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.521</v>
+        <v>0.529</v>
       </c>
       <c r="F246" t="n">
         <v>345</v>
@@ -7334,21 +7334,21 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.521</v>
+        <v>0.529</v>
       </c>
       <c r="F247" t="n">
         <v>345</v>
@@ -7357,17 +7357,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7376,16 +7376,16 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.523</v>
+        <v>0.534</v>
       </c>
       <c r="F248" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7395,19 +7395,19 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.523</v>
+        <v>0.534</v>
       </c>
       <c r="F249" t="n">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="250">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="F250" t="n">
         <v>345</v>
@@ -7441,7 +7441,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="F251" t="n">
         <v>345</v>
@@ -7469,7 +7469,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7479,25 +7479,25 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.529</v>
+        <v>0.546</v>
       </c>
       <c r="F252" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -7512,11 +7512,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.529</v>
+        <v>0.546</v>
       </c>
       <c r="F253" t="n">
         <v>345</v>
@@ -7525,12 +7525,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7540,30 +7540,30 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.529</v>
+        <v>0.553</v>
       </c>
       <c r="F254" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>7k1o</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7572,16 +7572,16 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.529</v>
+        <v>0.553</v>
       </c>
       <c r="F255" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -7591,35 +7591,35 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.538</v>
+        <v>0.555</v>
       </c>
       <c r="F256" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6xdh</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7628,16 +7628,16 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.538</v>
+        <v>0.555</v>
       </c>
       <c r="F257" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.544</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F258" t="n">
         <v>342</v>
@@ -7665,26 +7665,26 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
+          <t>5s6z</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
           <t>6x1b</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>5s71</t>
-        </is>
-      </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.544</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F259" t="n">
         <v>342</v>
@@ -7693,17 +7693,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.546</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F260" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6w01</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.546</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F261" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -7759,16 +7759,16 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F262" t="n">
         <v>340</v>
@@ -7777,17 +7777,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6w01</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>6vww</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F263" t="n">
         <v>340</v>
@@ -7861,91 +7861,91 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="F266" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="F267" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
+          <t>7kf4</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
           <t>7k9p</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>6xdh</t>
-        </is>
-      </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="F268" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>6xdh</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -7955,30 +7955,30 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="F269" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.577</v>
+        <v>0.579</v>
       </c>
       <c r="F270" t="n">
         <v>340</v>
@@ -8011,16 +8011,16 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.577</v>
+        <v>0.579</v>
       </c>
       <c r="F271" t="n">
         <v>340</v>
@@ -8029,7 +8029,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -8044,14 +8044,14 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.587</v>
+        <v>0.602</v>
       </c>
       <c r="F272" t="n">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="273">
@@ -8062,12 +8062,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6vww</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8076,35 +8076,35 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.587</v>
+        <v>0.602</v>
       </c>
       <c r="F273" t="n">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
+          <t>7kf4</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
           <t>7keg</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>7kf4</t>
-        </is>
-      </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.624</v>
+        <v>0.616</v>
       </c>
       <c r="F274" t="n">
         <v>346</v>
@@ -8113,26 +8113,26 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
+          <t>7keg</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
           <t>7kf4</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>7keg</t>
-        </is>
-      </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.624</v>
+        <v>0.616</v>
       </c>
       <c r="F275" t="n">
         <v>346</v>
@@ -8141,7 +8141,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -8151,35 +8151,35 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.628</v>
+        <v>0.618</v>
       </c>
       <c r="F276" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>7keg</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8188,77 +8188,77 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.628</v>
+        <v>0.618</v>
       </c>
       <c r="F277" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.634</v>
+        <v>0.628</v>
       </c>
       <c r="F278" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7keg</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.634</v>
+        <v>0.628</v>
       </c>
       <c r="F279" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -8272,10 +8272,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.654</v>
+        <v>0.658</v>
       </c>
       <c r="F280" t="n">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="281">
@@ -8291,63 +8291,63 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s6x</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.654</v>
+        <v>0.658</v>
       </c>
       <c r="F281" t="n">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
+          <t>7keh</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
           <t>7k9p</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>7k1l</t>
-        </is>
-      </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.657</v>
+        <v>0.67</v>
       </c>
       <c r="F282" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>7k1l</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7keh</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8356,10 +8356,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.657</v>
+        <v>0.67</v>
       </c>
       <c r="F283" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284">
@@ -8375,30 +8375,30 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.663</v>
+        <v>0.674</v>
       </c>
       <c r="F284" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>5s71</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8412,10 +8412,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.663</v>
+        <v>0.674</v>
       </c>
       <c r="F285" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="286">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8440,16 +8440,16 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="F286" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>5s6x</t>
+          <t>5s6z</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -8464,20 +8464,20 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="F287" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8487,35 +8487,35 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F288" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6wlc</t>
+          <t>5s6y</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8524,21 +8524,21 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F289" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.7</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F290" t="n">
         <v>346</v>
@@ -8571,16 +8571,16 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>7keh</t>
+          <t>7k1l</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.7</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F291" t="n">
         <v>346</v>
@@ -8589,7 +8589,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>5s6z</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8599,16 +8599,16 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>5s70</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.701</v>
+        <v>0.694</v>
       </c>
       <c r="F292" t="n">
         <v>345</v>
@@ -8617,26 +8617,26 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>5s70</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
           <t>7k9p</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>5s6z</t>
-        </is>
-      </c>
       <c r="D293" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.701</v>
+        <v>0.694</v>
       </c>
       <c r="F293" t="n">
         <v>345</v>
@@ -8645,7 +8645,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>5s71</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -8655,53 +8655,53 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>5s72</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.704</v>
+        <v>0.696</v>
       </c>
       <c r="F294" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>5s72</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
           <t>7k9p</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>5s71</t>
-        </is>
-      </c>
       <c r="D295" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.704</v>
+        <v>0.696</v>
       </c>
       <c r="F295" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8716,14 +8716,14 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.708</v>
+        <v>0.712</v>
       </c>
       <c r="F296" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="297">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>6x4i</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8748,26 +8748,26 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.708</v>
+        <v>0.712</v>
       </c>
       <c r="F297" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8776,26 +8776,26 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="F298" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>6wlc</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8804,44 +8804,44 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="F299" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>5s6y</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.717</v>
+        <v>0.726</v>
       </c>
       <c r="F300" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>5s70</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8851,63 +8851,63 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>7kf4</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.717</v>
+        <v>0.726</v>
       </c>
       <c r="F301" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
+          <t>6x1b</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
           <t>7k9p</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>5s72</t>
-        </is>
-      </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.72</v>
+        <v>0.732</v>
       </c>
       <c r="F302" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>5s72</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>7k9p</t>
+          <t>6x1b</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8916,66 +8916,66 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.72</v>
+        <v>0.732</v>
       </c>
       <c r="F303" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.726</v>
+        <v>0.743</v>
       </c>
       <c r="F304" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6x1b</t>
+          <t>7k9p</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>7kf4</t>
+          <t>6x4i</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.726</v>
+        <v>0.743</v>
       </c>
       <c r="F305" t="n">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -9000,10 +9000,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.782</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F306" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="307">
@@ -9024,14 +9024,14 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.782</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F307" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
